--- a/Data/raw_excel/Survey_Vendite_Usato.xlsx
+++ b/Data/raw_excel/Survey_Vendite_Usato.xlsx
@@ -3835,7 +3835,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
